--- a/medicine/Sexualité et sexologie/The_Oh_in_Ohio/The_Oh_in_Ohio.xlsx
+++ b/medicine/Sexualité et sexologie/The_Oh_in_Ohio/The_Oh_in_Ohio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Oh in Ohio ou Oh en Ohio au Québec, est un film américain réalisé par Billy Kent, sorti en 2006.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Séduisante publicitaire, Priscilla Chase, mariée à Jack, professeur de sciences, semble mener une vie heureuse et épanouie. Du moins, en apparence, car elle n'a jamais eu d'orgasme, ce qui frustre ce dernier. Jack, atteint dans sa virilité, décide de la quitter pour entamer une relation avec une de ses étudiantes, Kristen, tandis que Priscilla, après avoir tenté de remédier à son problème, va retrouver l'amour en la personne de Wayne, homme d'affaires spécialisé dans les piscines deux fois plus âgé qu'elle.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : The Oh in Ohio
 Réalisation : Billy Kent
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Parker Posey (V. Q. : Anne Bédard) : Priscilla Chase
 Paul Rudd (V. Q. : Patrice Dubois) : Jack Chase
@@ -634,10 +652,12 @@
           <t>Réception</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a rencontré des critiques mitigées ou négatives, obtenant sur 22 % d'avis favorables le site Rotten Tomatoes sur la base d'une note moyenne de 4.6⁄10 et 69 commentaires[1]. Le site Metacritic lui attribue une moyenne de 48⁄100 basé sur 20 critiques[2].
-En salles, The Oh in Ohio a été un échec commercial, avec 10 % de bénéfices inférieures à son budget de 5 millions de dollars[3], car étant sorti de façon limitée sur le territoire américain.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a rencontré des critiques mitigées ou négatives, obtenant sur 22 % d'avis favorables le site Rotten Tomatoes sur la base d'une note moyenne de 4.6⁄10 et 69 commentaires. Le site Metacritic lui attribue une moyenne de 48⁄100 basé sur 20 critiques.
+En salles, The Oh in Ohio a été un échec commercial, avec 10 % de bénéfices inférieures à son budget de 5 millions de dollars, car étant sorti de façon limitée sur le territoire américain.
 </t>
         </is>
       </c>
